--- a/artfynd/A 9458-2023.xlsx
+++ b/artfynd/A 9458-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112095428</v>
+        <v>112095473</v>
       </c>
       <c r="B2" t="n">
         <v>78578</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>491096.3535132488</v>
+        <v>491075.6200524023</v>
       </c>
       <c r="R2" t="n">
-        <v>6954258.672669401</v>
+        <v>6954236.250139047</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112095473</v>
+        <v>112095428</v>
       </c>
       <c r="B3" t="n">
         <v>78578</v>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>491075.6200524023</v>
+        <v>491096.3535132488</v>
       </c>
       <c r="R3" t="n">
-        <v>6954236.250139047</v>
+        <v>6954258.672669401</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>

--- a/artfynd/A 9458-2023.xlsx
+++ b/artfynd/A 9458-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112095473</v>
+        <v>112095298</v>
       </c>
       <c r="B2" t="n">
         <v>78578</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>491075.6200524023</v>
+        <v>491104.2250589156</v>
       </c>
       <c r="R2" t="n">
-        <v>6954236.250139047</v>
+        <v>6954281.588599314</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112095298</v>
+        <v>112095473</v>
       </c>
       <c r="B4" t="n">
         <v>78578</v>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>491104.2250589156</v>
+        <v>491075.6200524023</v>
       </c>
       <c r="R4" t="n">
-        <v>6954281.588599314</v>
+        <v>6954236.250139047</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>

--- a/artfynd/A 9458-2023.xlsx
+++ b/artfynd/A 9458-2023.xlsx
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>491104.2250589156</v>
+        <v>491104</v>
       </c>
       <c r="R2" t="n">
-        <v>6954281.588599314</v>
+        <v>6954282</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -756,19 +756,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -839,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>491096.3535132488</v>
+        <v>491096</v>
       </c>
       <c r="R3" t="n">
-        <v>6954258.672669401</v>
+        <v>6954259</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -872,19 +862,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -955,10 +935,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>491075.6200524023</v>
+        <v>491076</v>
       </c>
       <c r="R4" t="n">
-        <v>6954236.250139047</v>
+        <v>6954236</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -988,19 +968,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 9458-2023.xlsx
+++ b/artfynd/A 9458-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112095298</v>
+        <v>112095428</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>491104</v>
+        <v>491096</v>
       </c>
       <c r="R2" t="n">
-        <v>6954282</v>
+        <v>6954259</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112095428</v>
+        <v>112095298</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>491096</v>
+        <v>491104</v>
       </c>
       <c r="R3" t="n">
-        <v>6954259</v>
+        <v>6954282</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>112095473</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -996,6 +996,232 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112426767</v>
+      </c>
+      <c r="B5" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Lill-Öretjärnen (Lill-Öretjärnen), Jmt</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>490949</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6953753</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112426713</v>
+      </c>
+      <c r="B6" t="n">
+        <v>78699</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Lill-Öretjärnen (Lill-Öretjärnen), Jmt</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>490958</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6953733</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>18:39</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>18:39</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 9458-2023.xlsx
+++ b/artfynd/A 9458-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112095428</v>
+        <v>112095298</v>
       </c>
       <c r="B2" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>491096</v>
+        <v>491104</v>
       </c>
       <c r="R2" t="n">
-        <v>6954259</v>
+        <v>6954282</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112095298</v>
+        <v>112095473</v>
       </c>
       <c r="B3" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>491104</v>
+        <v>491076</v>
       </c>
       <c r="R3" t="n">
-        <v>6954282</v>
+        <v>6954236</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112095473</v>
+        <v>112095428</v>
       </c>
       <c r="B4" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>491076</v>
+        <v>491096</v>
       </c>
       <c r="R4" t="n">
-        <v>6954236</v>
+        <v>6954259</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112426767</v>
+        <v>112426713</v>
       </c>
       <c r="B5" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>490949</v>
+        <v>490958</v>
       </c>
       <c r="R5" t="n">
-        <v>6953753</v>
+        <v>6953733</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:39</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:39</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1111,10 +1111,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112426713</v>
+        <v>112426767</v>
       </c>
       <c r="B6" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1152,10 +1152,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>490958</v>
+        <v>490949</v>
       </c>
       <c r="R6" t="n">
-        <v>6953733</v>
+        <v>6953753</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>18:39</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>18:39</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 9458-2023.xlsx
+++ b/artfynd/A 9458-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112095298</v>
+        <v>112095428</v>
       </c>
       <c r="B2" t="n">
         <v>78713</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>491104</v>
+        <v>491096</v>
       </c>
       <c r="R2" t="n">
-        <v>6954282</v>
+        <v>6954259</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112095428</v>
+        <v>112095298</v>
       </c>
       <c r="B4" t="n">
         <v>78713</v>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>491096</v>
+        <v>491104</v>
       </c>
       <c r="R4" t="n">
-        <v>6954259</v>
+        <v>6954282</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
